--- a/src/main/resources/BaoCao.xlsx
+++ b/src/main/resources/BaoCao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATN\DATN\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D734010-5F52-40B1-A7D8-E6F986DCCDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD58004B-D6DE-4838-9DA2-E458BFC0B3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B96841D-F0AB-45C1-B81B-4019ABE51C74}"/>
   </bookViews>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5A8E55-17D5-4762-9B72-4B6A61AB4C0E}">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,8 @@
     <col min="4" max="4" width="19.21875" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
     <col min="9" max="9" width="30.33203125" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="22.21875" customWidth="1"/>
